--- a/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
@@ -156,6 +156,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -178,6 +179,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -185,6 +187,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -192,11 +195,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,7 +287,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -376,9 +381,11 @@
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="5" t="e">
+      <c r="N7" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D7:M7)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -388,9 +395,11 @@
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="5" t="e">
+      <c r="N8" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D8:M8)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,9 +409,11 @@
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="5" t="e">
+      <c r="N9" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D9:M9)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,9 +423,11 @@
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="5" t="e">
+      <c r="N10" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D10:M10)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,9 +437,11 @@
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="5" t="e">
+      <c r="N11" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D11:M11)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,9 +451,11 @@
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="5" t="e">
+      <c r="N12" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D12:M12)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,9 +465,11 @@
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="5" t="e">
+      <c r="N13" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D13:M13)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,9 +479,11 @@
       <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="5" t="e">
+      <c r="N14" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D14:M14)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -472,9 +493,11 @@
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="5" t="e">
+      <c r="N15" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D15:M15)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,9 +507,11 @@
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="5" t="e">
+      <c r="N16" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D16:M16)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,9 +521,11 @@
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N17" s="5" t="e">
+      <c r="N17" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D17:M17)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -508,9 +535,11 @@
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="5" t="e">
+      <c r="N18" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D18:M18)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,9 +549,11 @@
       <c r="C19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="5" t="e">
+      <c r="N19" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D19:M19)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,9 +563,11 @@
       <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="5" t="e">
+      <c r="N20" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D20:M20)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,9 +577,11 @@
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="5" t="e">
+      <c r="N21" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D21:M21)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,9 +591,11 @@
       <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="5" t="e">
+      <c r="N22" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D22:M22)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,9 +605,11 @@
       <c r="C23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="5" t="e">
+      <c r="N23" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D23:M23)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,9 +619,11 @@
       <c r="C24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="5" t="e">
+      <c r="N24" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D24:M24)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,9 +633,11 @@
       <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="5" t="e">
+      <c r="N25" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D25:M25)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,9 +647,11 @@
       <c r="C26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="5" t="e">
+      <c r="N26" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D26:M26)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,9 +661,11 @@
       <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="5" t="e">
+      <c r="N27" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D27:M27)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,9 +675,11 @@
       <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="5" t="e">
+      <c r="N28" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D28:M28)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,9 +689,11 @@
       <c r="C29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="5" t="e">
+      <c r="N29" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D29:M29)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,9 +703,11 @@
       <c r="C30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="5" t="e">
+      <c r="N30" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D30:M30)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,9 +717,11 @@
       <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N31" s="5" t="e">
+      <c r="N31" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D31:M31)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,9 +731,11 @@
       <c r="C32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="5" t="e">
+      <c r="N32" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D32:M32)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,9 +745,11 @@
       <c r="C33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="5" t="e">
+      <c r="N33" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D33:M33)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,8 +805,8 @@
   </sheetPr>
   <dimension ref="C5:H38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -822,7 +881,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,6 +913,9 @@
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E13" s="0" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="n">
@@ -928,6 +990,9 @@
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="E20" s="0" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="n">
@@ -969,6 +1034,9 @@
       <c r="D24" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E24" s="0" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="n">
@@ -999,6 +1067,9 @@
       <c r="D27" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="E27" s="0" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="n">
@@ -1051,6 +1122,9 @@
       <c r="D32" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="E32" s="0" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="n">
@@ -1070,6 +1144,9 @@
       <c r="D34" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="E34" s="0" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="n">
@@ -1078,6 +1155,9 @@
       <c r="D35" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="E35" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="n">
@@ -1085,6 +1165,9 @@
       </c>
       <c r="D36" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
@@ -287,7 +287,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -805,8 +805,8 @@
   </sheetPr>
   <dimension ref="C5:H38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -859,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,7 +936,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,7 +980,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1024,7 +1024,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,7 +1079,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,7 +1123,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,7 +1156,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="practicas_laboratorio" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="pruebas_parciales" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="informes escritos" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="investigacion_bibliografica" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="trabajo_autonomo" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="examen" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="practicas_laboratorio" sheetId="1" r:id="rId1"/>
+    <sheet name="pruebas_parciales" sheetId="2" r:id="rId2"/>
+    <sheet name="informes escritos" sheetId="3" r:id="rId3"/>
+    <sheet name="investigacion_bibliografica" sheetId="4" r:id="rId4"/>
+    <sheet name="trabajo_autonomo" sheetId="5" r:id="rId5"/>
+    <sheet name="examen" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -145,12 +144,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -159,22 +154,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -182,7 +162,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -190,7 +170,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -213,7 +193,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -221,96 +201,337 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+    <col min="3" max="3" width="42.140625"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -324,460 +545,406 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3">
         <v>6</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="3">
         <v>7</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="3">
         <v>8</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="3">
         <v>9</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="3">
         <v>10</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="5" t="e">
-        <f aca="false">AVERAGE(D6:M6)*15/10</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+        <f t="shared" ref="N6:N33" si="0">AVERAGE(D6:M6)*15/10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D7:M7)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+      <c r="N7" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D8:M8)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+      <c r="N8" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D9:M9)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+      <c r="N9" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D10:M10)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+      <c r="N10" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D11:M11)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+      <c r="N11" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D12:M12)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+      <c r="N12" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D13:M13)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+      <c r="N13" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D14:M14)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+      <c r="N14" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D15:M15)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+      <c r="N15" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D16:M16)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+      <c r="N16" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N17" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D17:M17)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+      <c r="N17" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D18:M18)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+      <c r="N18" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D19:M19)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+      <c r="N19" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D20:M20)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+      <c r="N20" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D21:M21)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+      <c r="N21" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D22:M22)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+      <c r="N22" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D23:M23)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+      <c r="N23" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D24:M24)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="n">
+      <c r="N24" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D25:M25)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="n">
+      <c r="N25" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D26:M26)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="n">
+      <c r="N26" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D27:M27)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="n">
+      <c r="N27" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D28:M28)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="n">
+      <c r="N28" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D29:M29)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="n">
+      <c r="N29" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D30:M30)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="n">
+      <c r="N30" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31">
         <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N31" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D31:M31)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="n">
+      <c r="N31" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>27</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D32:M32)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="n">
+      <c r="N32" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D33:M33)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="n">
+      <c r="N33" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>29</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="n">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="n">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>31</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="n">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>32</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -788,713 +955,707 @@
   <mergeCells count="1">
     <mergeCell ref="D4:M4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:H38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
+    <col min="4" max="4" width="42.140625"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="3">
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="n">
+      <c r="E8">
+        <f>(20+90)/2</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>70</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="n">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>95</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>50</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>90</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="n">
+      <c r="E13" s="6">
+        <f>(60+63)/2</f>
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="n">
+      <c r="E14">
+        <f>(60+80)/2</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15">
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="n">
+      <c r="E15" s="6">
+        <f>(20+75)/2</f>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="n">
+      <c r="E16" s="6">
+        <f>(55+60)/2</f>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>70</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="n">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>95</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="n">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
         <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="n">
+      <c r="E19">
+        <f>(25+45)/2</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20">
         <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>85</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="n">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21">
         <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>65</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="n">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22">
         <v>16</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>100</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="n">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23">
         <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="n">
+      <c r="E23">
+        <f>(50+100)/2</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24">
         <v>18</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>90</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="n">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25">
         <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>70</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="n">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26">
         <v>20</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="n">
+      <c r="E26" s="6">
+        <f>(65+78)/2</f>
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27">
         <v>21</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="n">
+      <c r="E27" s="6">
+        <f>(60+95)/2</f>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28">
         <v>22</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>35</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="n">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29">
         <v>23</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="n">
+      <c r="E29">
+        <f>(60+80)/2</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30">
         <v>24</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>90</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="n">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31">
         <v>25</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>100</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="n">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32">
         <v>26</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="n">
+      <c r="E32">
+        <f>(60+78)/2</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33">
         <v>27</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>100</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="n">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34">
         <v>28</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>80</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="n">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35">
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="n">
+      <c r="E35">
+        <f>(25+63)/2</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36">
         <v>30</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>70</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="n">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37">
         <v>31</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="n">
+      <c r="E37" s="6">
+        <f>(50+65)/2</f>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38">
         <v>32</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="E38">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E5:G5"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:I38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col min="5" max="5" width="42.140625"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="4:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="3">
         <v>3</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="n">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="n">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="n">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="0" t="n">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="n">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="0" t="n">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12">
         <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="n">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13">
         <v>7</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="n">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14">
         <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="0" t="n">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15">
         <v>9</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="0" t="n">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16">
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="0" t="n">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17">
         <v>11</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="0" t="n">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18">
         <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="0" t="n">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19">
         <v>13</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="n">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20">
         <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="0" t="n">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21">
         <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="0" t="n">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22">
         <v>16</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0" t="n">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23">
         <v>17</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="n">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24">
         <v>18</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="0" t="n">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25">
         <v>19</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="0" t="n">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26">
         <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="0" t="n">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27">
         <v>21</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="0" t="n">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28">
         <v>22</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="0" t="n">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29">
         <v>23</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="0" t="n">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30">
         <v>24</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="0" t="n">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31">
         <v>25</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="0" t="n">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32">
         <v>26</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="0" t="n">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33">
         <v>27</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="0" t="n">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34">
         <v>28</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="0" t="n">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35">
         <v>29</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="0" t="n">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36">
         <v>30</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="0" t="n">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37">
         <v>31</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="0" t="n">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -1505,308 +1666,300 @@
   <mergeCells count="1">
     <mergeCell ref="F5:H5"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:H38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5344129554656"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5344129554656"/>
+    <col min="1" max="3" width="10.5703125"/>
+    <col min="4" max="4" width="42.140625"/>
+    <col min="5" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="3">
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="n">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="n">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="n">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="n">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15">
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="n">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="n">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="n">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="n">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
         <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="n">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
         <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="n">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
         <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="n">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
         <v>16</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="n">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
         <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="n">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
         <v>18</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="n">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
         <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="n">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26">
         <v>20</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="n">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27">
         <v>21</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="n">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28">
         <v>22</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="n">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29">
         <v>23</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="n">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30">
         <v>24</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="n">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31">
         <v>25</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="n">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32">
         <v>26</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="n">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33">
         <v>27</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="n">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34">
         <v>28</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="n">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="n">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36">
         <v>30</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="n">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37">
         <v>31</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="n">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38">
         <v>32</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -1817,308 +1970,300 @@
   <mergeCells count="1">
     <mergeCell ref="E5:G5"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:H37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5344129554656"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5344129554656"/>
+    <col min="1" max="3" width="10.5703125"/>
+    <col min="4" max="4" width="42.140625"/>
+    <col min="5" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="n">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="n">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="n">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="n">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="n">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15">
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="n">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="n">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="n">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="n">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
         <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="n">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="n">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
         <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="n">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
         <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="n">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
         <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="n">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
         <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="n">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
         <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="n">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26">
         <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="n">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27">
         <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="n">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28">
         <v>23</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="n">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29">
         <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="n">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30">
         <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="n">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31">
         <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="n">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32">
         <v>27</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="n">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33">
         <v>28</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="n">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34">
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="n">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
         <v>30</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="n">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36">
         <v>31</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="n">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37">
         <v>32</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2129,40 +2274,32 @@
   <mergeCells count="1">
     <mergeCell ref="E4:G4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:H37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5344129554656"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5344129554656"/>
+    <col min="1" max="3" width="10.5703125"/>
+    <col min="4" max="4" width="42.140625"/>
+    <col min="5" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2173,256 +2310,256 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="n">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="n">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="n">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="n">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="n">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15">
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="n">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="n">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="n">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="n">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
         <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="n">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="n">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
         <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="n">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
         <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="n">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
         <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="n">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
         <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="n">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
         <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="n">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26">
         <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="n">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27">
         <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="n">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28">
         <v>23</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="n">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29">
         <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="n">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30">
         <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="n">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31">
         <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="n">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32">
         <v>27</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="n">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33">
         <v>28</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="n">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34">
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="n">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
         <v>30</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="n">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36">
         <v>31</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="n">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37">
         <v>32</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2430,12 +2567,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="practicas_laboratorio" sheetId="1" r:id="rId1"/>
@@ -150,6 +150,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -177,12 +183,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -203,27 +203,58 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -962,10 +993,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:H38"/>
+  <dimension ref="C5:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,14 +1004,13 @@
     <col min="4" max="4" width="42.140625"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="3:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -990,14 +1020,11 @@
       <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1</v>
       </c>
@@ -1007,8 +1034,15 @@
       <c r="E7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>95</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" ref="G7:G38" si="0">AVERAGE(E7,F7)</f>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>2</v>
       </c>
@@ -1019,8 +1053,15 @@
         <f>(20+90)/2</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>90</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>3</v>
       </c>
@@ -1030,8 +1071,15 @@
       <c r="E9">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>4</v>
       </c>
@@ -1041,8 +1089,15 @@
       <c r="E10">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>95</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>5</v>
       </c>
@@ -1050,10 +1105,18 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+        <f>AVERAGE(50,60)</f>
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <v>95</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>6</v>
       </c>
@@ -1063,8 +1126,15 @@
       <c r="E12">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>7</v>
       </c>
@@ -1075,8 +1145,15 @@
         <f>(60+63)/2</f>
         <v>61.5</v>
       </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>85</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>73.25</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>8</v>
       </c>
@@ -1087,8 +1164,15 @@
         <f>(60+80)/2</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>95</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>9</v>
       </c>
@@ -1096,11 +1180,18 @@
         <v>11</v>
       </c>
       <c r="E15" s="6">
-        <f>(20+75)/2</f>
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+        <f>AVERAGE((20+75)/2,70)</f>
+        <v>58.75</v>
+      </c>
+      <c r="F15">
+        <v>85</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>10</v>
       </c>
@@ -1108,11 +1199,18 @@
         <v>12</v>
       </c>
       <c r="E16" s="6">
-        <f>(55+60)/2</f>
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+        <f>AVERAGE((55+60)/2,70)</f>
+        <v>63.75</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="0"/>
+        <v>81.875</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>11</v>
       </c>
@@ -1122,8 +1220,15 @@
       <c r="E17">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>75</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>12</v>
       </c>
@@ -1133,8 +1238,15 @@
       <c r="E18">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>13</v>
       </c>
@@ -1142,11 +1254,18 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <f>(25+45)/2</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+        <f>AVERAGE((25+45)/2,75)</f>
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>70</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>14</v>
       </c>
@@ -1156,19 +1275,34 @@
       <c r="E20">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>90</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E21">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="6">
+        <f>AVERAGE(65,70)</f>
+        <v>67.5</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="0"/>
+        <v>83.75</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>16</v>
       </c>
@@ -1178,8 +1312,15 @@
       <c r="E22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>75</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>17</v>
       </c>
@@ -1190,8 +1331,15 @@
         <f>(50+100)/2</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>90</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>18</v>
       </c>
@@ -1201,8 +1349,15 @@
       <c r="E24">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>80</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>19</v>
       </c>
@@ -1210,10 +1365,18 @@
         <v>21</v>
       </c>
       <c r="E25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+        <f>AVERAGE(70,80)</f>
+        <v>75</v>
+      </c>
+      <c r="F25">
+        <v>95</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>20</v>
       </c>
@@ -1224,8 +1387,15 @@
         <f>(65+78)/2</f>
         <v>71.5</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="0"/>
+        <v>85.75</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>21</v>
       </c>
@@ -1236,8 +1406,15 @@
         <f>(60+95)/2</f>
         <v>77.5</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="0"/>
+        <v>88.75</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>22</v>
       </c>
@@ -1245,10 +1422,18 @@
         <v>24</v>
       </c>
       <c r="E28">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+        <f>AVERAGE(35,75)</f>
+        <v>55</v>
+      </c>
+      <c r="F28">
+        <v>85</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>23</v>
       </c>
@@ -1256,11 +1441,18 @@
         <v>25</v>
       </c>
       <c r="E29">
-        <f>(60+80)/2</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+        <f>AVERAGE((60+80)/2,80)</f>
+        <v>75</v>
+      </c>
+      <c r="F29">
+        <v>95</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>24</v>
       </c>
@@ -1270,8 +1462,15 @@
       <c r="E30">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>80</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>25</v>
       </c>
@@ -1281,20 +1480,34 @@
       <c r="E31">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>90</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>26</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E32">
-        <f>(60+78)/2</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="6">
+        <f>AVERAGE((60+78)/2,80)</f>
+        <v>74.5</v>
+      </c>
+      <c r="F32">
+        <v>90</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="0"/>
+        <v>82.25</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>27</v>
       </c>
@@ -1304,8 +1517,15 @@
       <c r="E33">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>85</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>28</v>
       </c>
@@ -1315,8 +1535,15 @@
       <c r="E34">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>95</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>29</v>
       </c>
@@ -1324,11 +1551,18 @@
         <v>31</v>
       </c>
       <c r="E35">
-        <f>(25+63)/2</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+        <f>AVERAGE((25+63)/2,50)</f>
+        <v>47</v>
+      </c>
+      <c r="F35">
+        <v>90</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="0"/>
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>30</v>
       </c>
@@ -1336,10 +1570,18 @@
         <v>32</v>
       </c>
       <c r="E36">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+        <f>AVERAGE(70,80)</f>
+        <v>75</v>
+      </c>
+      <c r="F36">
+        <v>85</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>31</v>
       </c>
@@ -1347,11 +1589,18 @@
         <v>33</v>
       </c>
       <c r="E37" s="6">
-        <f>(50+65)/2</f>
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+        <f>AVERAGE((50+65)/2,65)</f>
+        <v>61.25</v>
+      </c>
+      <c r="F37">
+        <v>80</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="0"/>
+        <v>70.625</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>32</v>
       </c>
@@ -1359,13 +1608,25 @@
         <v>34</v>
       </c>
       <c r="E38">
-        <v>45</v>
+        <f>AVERAGE(45,75)</f>
+        <v>60</v>
+      </c>
+      <c r="F38">
+        <v>85</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
+  <conditionalFormatting sqref="G7:G38">
+    <cfRule type="top10" dxfId="0" priority="2" rank="10"/>
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -1375,7 +1636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="449" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="practicas_laboratorio" sheetId="1" r:id="rId1"/>
-    <sheet name="pruebas_parciales" sheetId="2" r:id="rId2"/>
-    <sheet name="informes escritos" sheetId="3" r:id="rId3"/>
-    <sheet name="investigacion_bibliografica" sheetId="4" r:id="rId4"/>
-    <sheet name="trabajo_autonomo" sheetId="5" r:id="rId5"/>
-    <sheet name="examen" sheetId="6" r:id="rId6"/>
+    <sheet name="practicas_laboratorio" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="pruebas_parciales" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="informes escritos" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="investigacion_bibliografica" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="trabajo_autonomo" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="examen" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="total" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="47">
   <si>
     <t>Prácticas de laboratorio</t>
   </si>
@@ -139,13 +141,39 @@
   </si>
   <si>
     <t>Examen</t>
+  </si>
+  <si>
+    <t>Puntuacion</t>
+  </si>
+  <si>
+    <t>Lecciones</t>
+  </si>
+  <si>
+    <t>Informes</t>
+  </si>
+  <si>
+    <t>Investigacion Bibliografica</t>
+  </si>
+  <si>
+    <t>Practicas Laboratorio</t>
+  </si>
+  <si>
+    <t>Practicas Campo</t>
+  </si>
+  <si>
+    <t>Trabajo Autonomo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -156,11 +184,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <family val="0"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -168,7 +205,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -176,10 +213,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -193,7 +236,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -201,42 +244,86 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="1"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+        <sz val="11"/>
         <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -246,7 +333,11 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -255,314 +346,88 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B4:N37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="42.140625"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,406 +441,406 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="3">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="3" t="n">
         <v>10</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="5" t="e">
-        <f t="shared" ref="N6:N33" si="0">AVERAGE(D6:M6)*15/10</f>
+        <f aca="false">AVERAGE(D6:M6)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N7" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D7:M7)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="N8" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D8:M8)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="N9" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D9:M9)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="N10" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D10:M10)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D11:M11)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="N12" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D12:M12)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N13" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D13:M13)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N14" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D14:M14)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N15" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D15:M15)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N16" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D16:M16)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="N17" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D17:M17)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N18" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D18:M18)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
         <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N19" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D19:M19)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
         <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N20" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D20:M20)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N21" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D21:M21)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="N22" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D22:M22)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
         <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="N23" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D23:M23)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
         <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N24" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D24:M24)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="N25" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D25:M25)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N26" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D26:M26)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="N27" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D27:M27)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
         <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="N28" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D28:M28)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
         <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="N29" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D29:M29)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
         <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D30:M30)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
         <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="N31" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D31:M31)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
         <v>27</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D32:M32)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
         <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="N33" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D33:M33)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="n">
         <v>29</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="n">
         <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="n">
         <v>31</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="n">
         <v>32</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -986,636 +851,646 @@
   <mergeCells count="1">
     <mergeCell ref="D4:M4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="C5:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="42.140625"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="3:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G7" s="6">
-        <f t="shared" ref="G7:G38" si="0">AVERAGE(E7,F7)</f>
+      <c r="G7" s="6" t="n">
+        <f aca="false">AVERAGE(E7,F7)</f>
         <v>72.5</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E8">
-        <f>(20+90)/2</f>
+      <c r="E8" s="0" t="n">
+        <f aca="false">(20+90)/2</f>
         <v>55</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
+      <c r="G8" s="6" t="n">
+        <f aca="false">AVERAGE(E8,F8)</f>
         <v>72.5</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
+      <c r="G9" s="6" t="n">
+        <f aca="false">AVERAGE(E9,F9)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G10" s="6">
-        <f t="shared" si="0"/>
+      <c r="G10" s="6" t="n">
+        <f aca="false">AVERAGE(E10,F10)</f>
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11">
-        <f>AVERAGE(50,60)</f>
+      <c r="E11" s="0" t="n">
+        <f aca="false">AVERAGE(50,60)</f>
         <v>55</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G11" s="6">
-        <f t="shared" si="0"/>
+      <c r="G11" s="6" t="n">
+        <f aca="false">AVERAGE(E11,F11)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13">
+      <c r="F12" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <f aca="false">AVERAGE(E12,F12)</f>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="6">
-        <f>(60+63)/2</f>
+      <c r="E13" s="6" t="n">
+        <f aca="false">(60+63)/2</f>
         <v>61.5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G13" s="6">
-        <f t="shared" si="0"/>
+      <c r="G13" s="6" t="n">
+        <f aca="false">AVERAGE(E13,F13)</f>
         <v>73.25</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E14">
-        <f>(60+80)/2</f>
+      <c r="E14" s="0" t="n">
+        <f aca="false">(60+80)/2</f>
         <v>70</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G14" s="6">
-        <f t="shared" si="0"/>
+      <c r="G14" s="6" t="n">
+        <f aca="false">AVERAGE(E14,F14)</f>
         <v>82.5</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="6">
-        <f>AVERAGE((20+75)/2,70)</f>
+      <c r="E15" s="6" t="n">
+        <f aca="false">AVERAGE((20+75)/2,70)</f>
         <v>58.75</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
+      <c r="G15" s="6" t="n">
+        <f aca="false">AVERAGE(E15,F15)</f>
         <v>71.875</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="6">
-        <f>AVERAGE((55+60)/2,70)</f>
+      <c r="E16" s="6" t="n">
+        <f aca="false">AVERAGE((55+60)/2,70)</f>
         <v>63.75</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G16" s="6">
-        <f t="shared" si="0"/>
+      <c r="G16" s="6" t="n">
+        <f aca="false">AVERAGE(E16,F16)</f>
         <v>81.875</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="G17" s="6">
-        <f t="shared" si="0"/>
+      <c r="G17" s="6" t="n">
+        <f aca="false">AVERAGE(E17,F17)</f>
         <v>72.5</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" si="0"/>
+      <c r="G18" s="6" t="n">
+        <f aca="false">AVERAGE(E18,F18)</f>
         <v>47.5</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E19">
-        <f>AVERAGE((25+45)/2,75)</f>
+      <c r="E19" s="0" t="n">
+        <f aca="false">AVERAGE((25+45)/2,75)</f>
         <v>55</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
+      <c r="G19" s="6" t="n">
+        <f aca="false">AVERAGE(E19,F19)</f>
         <v>62.5</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
+      <c r="G20" s="6" t="n">
+        <f aca="false">AVERAGE(E20,F20)</f>
         <v>87.5</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="n">
         <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="6">
-        <f>AVERAGE(65,70)</f>
+      <c r="E21" s="6" t="n">
+        <f aca="false">AVERAGE(65,70)</f>
         <v>67.5</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
+      <c r="G21" s="6" t="n">
+        <f aca="false">AVERAGE(E21,F21)</f>
         <v>83.75</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
+      <c r="G22" s="6" t="n">
+        <f aca="false">AVERAGE(E22,F22)</f>
         <v>87.5</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="n">
         <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E23">
-        <f>(50+100)/2</f>
+      <c r="E23" s="0" t="n">
+        <f aca="false">(50+100)/2</f>
         <v>75</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
+      <c r="G23" s="6" t="n">
+        <f aca="false">AVERAGE(E23,F23)</f>
         <v>82.5</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
+      <c r="G24" s="6" t="n">
+        <f aca="false">AVERAGE(E24,F24)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="n">
         <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E25">
-        <f>AVERAGE(70,80)</f>
+      <c r="E25" s="0" t="n">
+        <f aca="false">AVERAGE(70,80)</f>
         <v>75</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
+      <c r="G25" s="6" t="n">
+        <f aca="false">AVERAGE(E25,F25)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="6">
-        <f>(65+78)/2</f>
+      <c r="E26" s="6" t="n">
+        <f aca="false">(65+78)/2</f>
         <v>71.5</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
+      <c r="G26" s="6" t="n">
+        <f aca="false">AVERAGE(E26,F26)</f>
         <v>85.75</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="n">
         <v>21</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="6">
-        <f>(60+95)/2</f>
+      <c r="E27" s="6" t="n">
+        <f aca="false">(60+95)/2</f>
         <v>77.5</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G27" s="6">
-        <f t="shared" si="0"/>
+      <c r="G27" s="6" t="n">
+        <f aca="false">AVERAGE(E27,F27)</f>
         <v>88.75</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E28">
-        <f>AVERAGE(35,75)</f>
+      <c r="E28" s="0" t="n">
+        <f aca="false">AVERAGE(35,75)</f>
         <v>55</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
+      <c r="G28" s="6" t="n">
+        <f aca="false">AVERAGE(E28,F28)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="n">
         <v>23</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E29">
-        <f>AVERAGE((60+80)/2,80)</f>
+      <c r="E29" s="0" t="n">
+        <f aca="false">AVERAGE((60+80)/2,80)</f>
         <v>75</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" si="0"/>
+      <c r="G29" s="6" t="n">
+        <f aca="false">AVERAGE(E29,F29)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="n">
         <v>24</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" si="0"/>
+      <c r="G30" s="6" t="n">
+        <f aca="false">AVERAGE(E30,F30)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="n">
         <v>25</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" si="0"/>
+      <c r="G31" s="6" t="n">
+        <f aca="false">AVERAGE(E31,F31)</f>
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="n">
         <v>26</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="6">
-        <f>AVERAGE((60+78)/2,80)</f>
+      <c r="E32" s="6" t="n">
+        <f aca="false">AVERAGE((60+78)/2,80)</f>
         <v>74.5</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" si="0"/>
+      <c r="G32" s="6" t="n">
+        <f aca="false">AVERAGE(E32,F32)</f>
         <v>82.25</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="n">
         <v>27</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
+      <c r="G33" s="6" t="n">
+        <f aca="false">AVERAGE(E33,F33)</f>
         <v>92.5</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="n">
         <v>28</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" si="0"/>
+      <c r="G34" s="6" t="n">
+        <f aca="false">AVERAGE(E34,F34)</f>
         <v>87.5</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="n">
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E35">
-        <f>AVERAGE((25+63)/2,50)</f>
+      <c r="E35" s="0" t="n">
+        <f aca="false">AVERAGE((25+63)/2,50)</f>
         <v>47</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G35" s="6">
-        <f t="shared" si="0"/>
+      <c r="G35" s="6" t="n">
+        <f aca="false">AVERAGE(E35,F35)</f>
         <v>68.5</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E36">
-        <f>AVERAGE(70,80)</f>
+      <c r="E36" s="0" t="n">
+        <f aca="false">AVERAGE(70,80)</f>
         <v>75</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" si="0"/>
+      <c r="G36" s="6" t="n">
+        <f aca="false">AVERAGE(E36,F36)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="n">
         <v>31</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="6">
-        <f>AVERAGE((50+65)/2,65)</f>
+      <c r="E37" s="6" t="n">
+        <f aca="false">AVERAGE((50+65)/2,65)</f>
         <v>61.25</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="0"/>
+      <c r="G37" s="6" t="n">
+        <f aca="false">AVERAGE(E37,F37)</f>
         <v>70.625</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="n">
         <v>32</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E38">
-        <f>AVERAGE(45,75)</f>
+      <c r="E38" s="0" t="n">
+        <f aca="false">AVERAGE(45,75)</f>
         <v>60</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G38" s="6">
-        <f t="shared" si="0"/>
+      <c r="G38" s="6" t="n">
+        <f aca="false">AVERAGE(E38,F38)</f>
         <v>72.5</v>
       </c>
     </row>
@@ -1624,603 +1499,703 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="G7:G38">
-    <cfRule type="top10" dxfId="0" priority="2" rank="10"/>
-    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="10"/>
+    <cfRule type="top10" priority="2" aboveAverage="0" equalAverage="0" bottom="1" percent="0" rank="10" text="" dxfId="0"/>
+    <cfRule type="top10" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="10" text="" dxfId="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:I38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="D5:G38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="5" max="5" width="42.140625"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="4:9" ht="23.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="3">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8">
+      <c r="F7" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9">
+      <c r="F8" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10">
+      <c r="F9" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11">
+      <c r="F10" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12">
+      <c r="F11" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13">
+      <c r="F12" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14">
+      <c r="F13" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D15">
+      <c r="F14" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16">
+      <c r="F15" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17">
+      <c r="F16" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18">
+      <c r="F17" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19">
+      <c r="F18" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20">
+      <c r="F19" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21">
+      <c r="F20" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22">
+      <c r="F21" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23">
+      <c r="F22" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24">
+      <c r="F23" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25">
+      <c r="F24" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0" t="n">
         <v>19</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26">
+      <c r="F25" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27">
+      <c r="F26" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0" t="n">
         <v>21</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28">
+      <c r="F27" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="0" t="n">
         <v>22</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29">
+      <c r="F28" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="0" t="n">
         <v>23</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30">
+      <c r="F29" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="0" t="n">
         <v>24</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31">
+      <c r="F30" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="n">
         <v>25</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32">
+      <c r="F31" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0" t="n">
         <v>26</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33">
+      <c r="F32" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="0" t="n">
         <v>27</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34">
+      <c r="F33" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="0" t="n">
         <v>28</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35">
+      <c r="F34" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0" t="n">
         <v>29</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36">
+      <c r="F35" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37">
+      <c r="F36" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="0" t="n">
         <v>31</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38">
+      <c r="F37" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="0" t="n">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="F38" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F5:H5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:H38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C5:F38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="3" width="10.5703125"/>
-    <col min="4" max="4" width="42.140625"/>
-    <col min="5" max="1025" width="10.5703125"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13">
+      <c r="E12" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="n">
         <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="n">
         <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="n">
         <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="n">
         <v>21</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="n">
         <v>23</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="n">
         <v>24</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="n">
         <v>25</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="n">
         <v>26</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="n">
         <v>27</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="n">
         <v>28</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="n">
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="n">
         <v>31</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="n">
         <v>32</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -2228,303 +2203,300 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E5:G5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:H37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C4:F37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="3" width="10.5703125"/>
-    <col min="4" max="4" width="42.140625"/>
-    <col min="5" max="1025" width="10.5703125"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="n">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="n">
         <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="n">
         <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="n">
         <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="n">
         <v>23</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="n">
         <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="n">
         <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="n">
         <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="n">
         <v>27</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="n">
         <v>28</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="n">
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="n">
         <v>31</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="n">
         <v>32</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2532,35 +2504,40 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E4:G4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="C4:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="10.5703125"/>
-    <col min="4" max="4" width="42.140625"/>
-    <col min="5" max="1025" width="10.5703125"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2571,256 +2548,256 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="n">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="n">
         <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="n">
         <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="n">
         <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="n">
         <v>23</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="n">
         <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="n">
         <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="n">
         <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="n">
         <v>27</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="n">
         <v>28</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="n">
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="n">
         <v>31</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="n">
         <v>32</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2828,7 +2805,129 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C1:E10"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9676113360324"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">pruebas_parciales!G12*D2/100</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">'informes escritos'!F12</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">investigacion_bibliografica!E12*D4/100</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0" t="n">
+        <f aca="false">SUM(D2:D8)</f>
+        <v>100</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">SUM(E2:E8)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="449" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="449" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="practicas_laboratorio" sheetId="1" state="visible" r:id="rId2"/>
@@ -314,7 +314,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -498,9 +498,11 @@
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="5" t="e">
+      <c r="N7" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D7:M7)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,9 +512,11 @@
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="5" t="e">
+      <c r="N8" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D8:M8)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,9 +526,11 @@
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="5" t="e">
+      <c r="N9" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D9:M9)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,9 +540,11 @@
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="5" t="e">
+      <c r="N10" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D10:M10)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,9 +554,11 @@
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="5" t="e">
+      <c r="N11" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D11:M11)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,9 +568,11 @@
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="5" t="e">
+      <c r="N12" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D12:M12)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,9 +582,11 @@
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="5" t="e">
+      <c r="N13" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D13:M13)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,9 +596,11 @@
       <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="5" t="e">
+      <c r="N14" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D14:M14)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,9 +610,11 @@
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="5" t="e">
+      <c r="N15" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D15:M15)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,9 +624,11 @@
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="5" t="e">
+      <c r="N16" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D16:M16)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,9 +638,11 @@
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N17" s="5" t="e">
+      <c r="N17" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D17:M17)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,9 +652,11 @@
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="5" t="e">
+      <c r="N18" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D18:M18)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,9 +666,11 @@
       <c r="C19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="5" t="e">
+      <c r="N19" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D19:M19)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,9 +680,11 @@
       <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="5" t="e">
+      <c r="N20" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D20:M20)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,9 +694,11 @@
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="5" t="e">
+      <c r="N21" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D21:M21)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,9 +708,11 @@
       <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="5" t="e">
+      <c r="N22" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D22:M22)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,9 +722,11 @@
       <c r="C23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="5" t="e">
+      <c r="N23" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D23:M23)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,9 +736,11 @@
       <c r="C24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="5" t="e">
+      <c r="N24" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D24:M24)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,9 +750,11 @@
       <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="5" t="e">
+      <c r="N25" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D25:M25)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,9 +764,11 @@
       <c r="C26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="5" t="e">
+      <c r="N26" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D26:M26)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,9 +778,11 @@
       <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="5" t="e">
+      <c r="N27" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D27:M27)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,9 +792,11 @@
       <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="5" t="e">
+      <c r="N28" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D28:M28)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,9 +806,11 @@
       <c r="C29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="5" t="e">
+      <c r="N29" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D29:M29)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,9 +820,11 @@
       <c r="C30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="5" t="e">
+      <c r="N30" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D30:M30)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,9 +834,11 @@
       <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N31" s="5" t="e">
+      <c r="N31" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D31:M31)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,9 +848,11 @@
       <c r="C32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="5" t="e">
+      <c r="N32" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D32:M32)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,9 +862,11 @@
       <c r="C33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="5" t="e">
+      <c r="N33" s="5" t="inlineStr">
         <f aca="false">AVERAGE(D33:M33)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -868,8 +922,8 @@
   </sheetPr>
   <dimension ref="C5:G38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1114,11 +1168,11 @@
         <v>95</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G18" s="6" t="n">
         <f aca="false">AVERAGE(E18,F18)</f>
-        <v>47.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2822,8 +2876,8 @@
   </sheetPr>
   <dimension ref="C1:E10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="449" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="449" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="practicas_laboratorio" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,11 +21,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="52">
   <si>
     <t>Prácticas de laboratorio</t>
   </si>
   <si>
+    <t>Paint y 
+Calcula
+Dora</t>
+  </si>
+  <si>
+    <t>Winrar</t>
+  </si>
+  <si>
+    <t>WinZip</t>
+  </si>
+  <si>
     <t>Alumnos</t>
   </si>
   <si>
@@ -68,6 +79,9 @@
     <t>MALDONADO GOMEZ GóMEZ MIGUEL ANGEL</t>
   </si>
   <si>
+    <t>--</t>
+  </si>
+  <si>
     <t>MATUTE MÁRQUEZ JORGE ANDRÉS</t>
   </si>
   <si>
@@ -132,6 +146,9 @@
   </si>
   <si>
     <t>Informes Escritos</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Investigacion</t>
@@ -273,13 +290,17 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -298,6 +319,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -314,7 +339,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -414,17 +439,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:N37"/>
+  <dimension ref="B4:G38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4412955465587"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.2753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.75708502024292"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.97570850202429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.61133603238866"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -433,478 +462,708 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <f aca="false">SUM(D7:F7)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <f aca="false">SUM(D8:F8)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <f aca="false">SUM(D9:F9)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3" t="n">
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <f aca="false">SUM(D10:F10)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <f aca="false">SUM(D11:F11)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <f aca="false">SUM(D12:F12)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <f aca="false">SUM(D13:F13)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <f aca="false">SUM(D14:F14)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="M5" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="5" t="e">
-        <f aca="false">AVERAGE(D6:M6)*15/10</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D7:M7)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D8:M8)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D9:M9)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D10:M10)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D11:M11)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D12:M12)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D13:M13)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <f aca="false">SUM(D15:F15)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <f aca="false">SUM(D16:F16)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="N14" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D14:M14)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <f aca="false">SUM(D17:F17)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="N15" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D15:M15)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <f aca="false">SUM(D18:F18)/3</f>
+        <v>6.66666666666667</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="N16" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D16:M16)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <f aca="false">SUM(D19:F19)/3</f>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="N17" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D17:M17)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="C20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <f aca="false">SUM(D20:F20)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="N18" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D18:M18)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <f aca="false">SUM(D21:F21)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="N19" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D19:M19)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="C22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <f aca="false">SUM(D22:F22)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="N20" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D20:M20)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="C23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <f aca="false">SUM(D23:F23)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="N21" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D21:M21)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="C24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <f aca="false">SUM(D24:F24)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="N22" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D22:M22)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="C25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <f aca="false">SUM(D25:F25)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="N23" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D23:M23)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <f aca="false">SUM(D26:F26)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="N24" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D24:M24)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="C27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <f aca="false">SUM(D27:F27)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="N25" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D25:M25)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <f aca="false">SUM(D28:F28)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="N26" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D26:M26)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="C29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <f aca="false">SUM(D29:F29)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="N27" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D27:M27)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="C30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <f aca="false">SUM(D30:F30)/3</f>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N28" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D28:M28)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="C31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <f aca="false">SUM(D31:F31)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="N29" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D29:M29)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <f aca="false">SUM(D32:F32)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="N30" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D30:M30)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="C33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <f aca="false">SUM(D33:F33)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="N31" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D31:M31)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="C34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <f aca="false">SUM(D34:F34)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="N32" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D32:M32)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <f aca="false">SUM(D35:F35)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="N33" s="5" t="inlineStr">
-        <f aca="false">AVERAGE(D33:M33)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="C36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <f aca="false">SUM(D36:F36)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="n">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="C37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <f aca="false">SUM(D37:F37)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="n">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>34</v>
+      <c r="C38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <f aca="false">SUM(D38:F38)/3</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:M4"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -922,8 +1181,8 @@
   </sheetPr>
   <dimension ref="C5:G38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -935,30 +1194,30 @@
   <sheetData>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>2</v>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>50</v>
@@ -966,7 +1225,7 @@
       <c r="F7" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="8" t="n">
         <f aca="false">AVERAGE(E7,F7)</f>
         <v>72.5</v>
       </c>
@@ -975,8 +1234,8 @@
       <c r="C8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">(20+90)/2</f>
@@ -985,7 +1244,7 @@
       <c r="F8" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="8" t="n">
         <f aca="false">AVERAGE(E8,F8)</f>
         <v>72.5</v>
       </c>
@@ -994,8 +1253,8 @@
       <c r="C9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>70</v>
@@ -1003,7 +1262,7 @@
       <c r="F9" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="8" t="n">
         <f aca="false">AVERAGE(E9,F9)</f>
         <v>55</v>
       </c>
@@ -1012,8 +1271,8 @@
       <c r="C10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>95</v>
@@ -1021,7 +1280,7 @@
       <c r="F10" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="8" t="n">
         <f aca="false">AVERAGE(E10,F10)</f>
         <v>95</v>
       </c>
@@ -1030,8 +1289,8 @@
       <c r="C11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">AVERAGE(50,60)</f>
@@ -1040,7 +1299,7 @@
       <c r="F11" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="8" t="n">
         <f aca="false">AVERAGE(E11,F11)</f>
         <v>75</v>
       </c>
@@ -1049,8 +1308,8 @@
       <c r="C12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>90</v>
@@ -1058,7 +1317,7 @@
       <c r="F12" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="8" t="n">
         <f aca="false">AVERAGE(E12,F12)</f>
         <v>72.5</v>
       </c>
@@ -1067,17 +1326,17 @@
       <c r="C13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="6" t="n">
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="n">
         <f aca="false">(60+63)/2</f>
         <v>61.5</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="8" t="n">
         <f aca="false">AVERAGE(E13,F13)</f>
         <v>73.25</v>
       </c>
@@ -1086,8 +1345,8 @@
       <c r="C14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>10</v>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">(60+80)/2</f>
@@ -1096,7 +1355,7 @@
       <c r="F14" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="8" t="n">
         <f aca="false">AVERAGE(E14,F14)</f>
         <v>82.5</v>
       </c>
@@ -1105,17 +1364,17 @@
       <c r="C15" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="6" t="n">
+      <c r="D15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="8" t="n">
         <f aca="false">AVERAGE((20+75)/2,70)</f>
         <v>58.75</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="8" t="n">
         <f aca="false">AVERAGE(E15,F15)</f>
         <v>71.875</v>
       </c>
@@ -1124,17 +1383,17 @@
       <c r="C16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="6" t="n">
+      <c r="D16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8" t="n">
         <f aca="false">AVERAGE((55+60)/2,70)</f>
         <v>63.75</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="8" t="n">
         <f aca="false">AVERAGE(E16,F16)</f>
         <v>81.875</v>
       </c>
@@ -1143,8 +1402,8 @@
       <c r="C17" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>13</v>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>70</v>
@@ -1152,7 +1411,7 @@
       <c r="F17" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="8" t="n">
         <f aca="false">AVERAGE(E17,F17)</f>
         <v>72.5</v>
       </c>
@@ -1161,8 +1420,8 @@
       <c r="C18" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>14</v>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>95</v>
@@ -1170,7 +1429,7 @@
       <c r="F18" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="G18" s="8" t="n">
         <f aca="false">AVERAGE(E18,F18)</f>
         <v>87.5</v>
       </c>
@@ -1179,8 +1438,8 @@
       <c r="C19" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>15</v>
+      <c r="D19" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">AVERAGE((25+45)/2,75)</f>
@@ -1189,7 +1448,7 @@
       <c r="F19" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="8" t="n">
         <f aca="false">AVERAGE(E19,F19)</f>
         <v>62.5</v>
       </c>
@@ -1198,8 +1457,8 @@
       <c r="C20" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>16</v>
+      <c r="D20" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>85</v>
@@ -1207,7 +1466,7 @@
       <c r="F20" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G20" s="6" t="n">
+      <c r="G20" s="8" t="n">
         <f aca="false">AVERAGE(E20,F20)</f>
         <v>87.5</v>
       </c>
@@ -1216,17 +1475,17 @@
       <c r="C21" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="6" t="n">
+      <c r="D21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="8" t="n">
         <f aca="false">AVERAGE(65,70)</f>
         <v>67.5</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G21" s="6" t="n">
+      <c r="G21" s="8" t="n">
         <f aca="false">AVERAGE(E21,F21)</f>
         <v>83.75</v>
       </c>
@@ -1235,8 +1494,8 @@
       <c r="C22" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>18</v>
+      <c r="D22" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>100</v>
@@ -1244,7 +1503,7 @@
       <c r="F22" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="G22" s="6" t="n">
+      <c r="G22" s="8" t="n">
         <f aca="false">AVERAGE(E22,F22)</f>
         <v>87.5</v>
       </c>
@@ -1253,8 +1512,8 @@
       <c r="C23" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>19</v>
+      <c r="D23" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E23" s="0" t="n">
         <f aca="false">(50+100)/2</f>
@@ -1263,7 +1522,7 @@
       <c r="F23" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G23" s="6" t="n">
+      <c r="G23" s="8" t="n">
         <f aca="false">AVERAGE(E23,F23)</f>
         <v>82.5</v>
       </c>
@@ -1272,8 +1531,8 @@
       <c r="C24" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>20</v>
+      <c r="D24" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>90</v>
@@ -1281,7 +1540,7 @@
       <c r="F24" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G24" s="6" t="n">
+      <c r="G24" s="8" t="n">
         <f aca="false">AVERAGE(E24,F24)</f>
         <v>85</v>
       </c>
@@ -1290,8 +1549,8 @@
       <c r="C25" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>21</v>
+      <c r="D25" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E25" s="0" t="n">
         <f aca="false">AVERAGE(70,80)</f>
@@ -1300,7 +1559,7 @@
       <c r="F25" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G25" s="6" t="n">
+      <c r="G25" s="8" t="n">
         <f aca="false">AVERAGE(E25,F25)</f>
         <v>85</v>
       </c>
@@ -1309,17 +1568,17 @@
       <c r="C26" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="6" t="n">
+      <c r="D26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="8" t="n">
         <f aca="false">(65+78)/2</f>
         <v>71.5</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G26" s="6" t="n">
+      <c r="G26" s="8" t="n">
         <f aca="false">AVERAGE(E26,F26)</f>
         <v>85.75</v>
       </c>
@@ -1328,17 +1587,17 @@
       <c r="C27" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="6" t="n">
+      <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="8" t="n">
         <f aca="false">(60+95)/2</f>
         <v>77.5</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G27" s="6" t="n">
+      <c r="G27" s="8" t="n">
         <f aca="false">AVERAGE(E27,F27)</f>
         <v>88.75</v>
       </c>
@@ -1347,8 +1606,8 @@
       <c r="C28" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>24</v>
+      <c r="D28" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E28" s="0" t="n">
         <f aca="false">AVERAGE(35,75)</f>
@@ -1357,7 +1616,7 @@
       <c r="F28" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G28" s="6" t="n">
+      <c r="G28" s="8" t="n">
         <f aca="false">AVERAGE(E28,F28)</f>
         <v>70</v>
       </c>
@@ -1366,8 +1625,8 @@
       <c r="C29" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>25</v>
+      <c r="D29" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E29" s="0" t="n">
         <f aca="false">AVERAGE((60+80)/2,80)</f>
@@ -1376,7 +1635,7 @@
       <c r="F29" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G29" s="6" t="n">
+      <c r="G29" s="8" t="n">
         <f aca="false">AVERAGE(E29,F29)</f>
         <v>85</v>
       </c>
@@ -1385,8 +1644,8 @@
       <c r="C30" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>26</v>
+      <c r="D30" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>90</v>
@@ -1394,7 +1653,7 @@
       <c r="F30" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G30" s="6" t="n">
+      <c r="G30" s="8" t="n">
         <f aca="false">AVERAGE(E30,F30)</f>
         <v>85</v>
       </c>
@@ -1403,8 +1662,8 @@
       <c r="C31" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>27</v>
+      <c r="D31" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>100</v>
@@ -1412,7 +1671,7 @@
       <c r="F31" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G31" s="6" t="n">
+      <c r="G31" s="8" t="n">
         <f aca="false">AVERAGE(E31,F31)</f>
         <v>95</v>
       </c>
@@ -1421,17 +1680,17 @@
       <c r="C32" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="6" t="n">
+      <c r="D32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="8" t="n">
         <f aca="false">AVERAGE((60+78)/2,80)</f>
         <v>74.5</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G32" s="6" t="n">
+      <c r="G32" s="8" t="n">
         <f aca="false">AVERAGE(E32,F32)</f>
         <v>82.25</v>
       </c>
@@ -1440,8 +1699,8 @@
       <c r="C33" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>29</v>
+      <c r="D33" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>100</v>
@@ -1449,7 +1708,7 @@
       <c r="F33" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G33" s="6" t="n">
+      <c r="G33" s="8" t="n">
         <f aca="false">AVERAGE(E33,F33)</f>
         <v>92.5</v>
       </c>
@@ -1458,8 +1717,8 @@
       <c r="C34" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>30</v>
+      <c r="D34" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>80</v>
@@ -1467,7 +1726,7 @@
       <c r="F34" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G34" s="6" t="n">
+      <c r="G34" s="8" t="n">
         <f aca="false">AVERAGE(E34,F34)</f>
         <v>87.5</v>
       </c>
@@ -1476,8 +1735,8 @@
       <c r="C35" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>31</v>
+      <c r="D35" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E35" s="0" t="n">
         <f aca="false">AVERAGE((25+63)/2,50)</f>
@@ -1486,7 +1745,7 @@
       <c r="F35" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G35" s="6" t="n">
+      <c r="G35" s="8" t="n">
         <f aca="false">AVERAGE(E35,F35)</f>
         <v>68.5</v>
       </c>
@@ -1495,8 +1754,8 @@
       <c r="C36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>32</v>
+      <c r="D36" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E36" s="0" t="n">
         <f aca="false">AVERAGE(70,80)</f>
@@ -1505,7 +1764,7 @@
       <c r="F36" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G36" s="6" t="n">
+      <c r="G36" s="8" t="n">
         <f aca="false">AVERAGE(E36,F36)</f>
         <v>80</v>
       </c>
@@ -1514,17 +1773,17 @@
       <c r="C37" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="6" t="n">
+      <c r="D37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="8" t="n">
         <f aca="false">AVERAGE((50+65)/2,65)</f>
         <v>61.25</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G37" s="6" t="n">
+      <c r="G37" s="8" t="n">
         <f aca="false">AVERAGE(E37,F37)</f>
         <v>70.625</v>
       </c>
@@ -1533,8 +1792,8 @@
       <c r="C38" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>34</v>
+      <c r="D38" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E38" s="0" t="n">
         <f aca="false">AVERAGE(45,75)</f>
@@ -1543,7 +1802,7 @@
       <c r="F38" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G38" s="6" t="n">
+      <c r="G38" s="8" t="n">
         <f aca="false">AVERAGE(E38,F38)</f>
         <v>72.5</v>
       </c>
@@ -1573,8 +1832,8 @@
   </sheetPr>
   <dimension ref="D5:G38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1585,27 +1844,27 @@
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="1" t="s">
-        <v>36</v>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>2</v>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>3</v>
+      <c r="E7" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>5</v>
@@ -1615,8 +1874,8 @@
       <c r="D8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>5</v>
@@ -1626,10 +1885,10 @@
       <c r="D9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1637,8 +1896,8 @@
       <c r="D10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>6</v>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>5</v>
@@ -1648,8 +1907,8 @@
       <c r="D11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>5</v>
@@ -1659,8 +1918,8 @@
       <c r="D12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>8</v>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>5</v>
@@ -1670,8 +1929,8 @@
       <c r="D13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>9</v>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>5</v>
@@ -1681,8 +1940,8 @@
       <c r="D14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>5</v>
@@ -1692,8 +1951,8 @@
       <c r="D15" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>11</v>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>5</v>
@@ -1703,8 +1962,8 @@
       <c r="D16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>12</v>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>5</v>
@@ -1714,10 +1973,10 @@
       <c r="D17" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="0" t="n">
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1725,10 +1984,10 @@
       <c r="D18" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="0" t="n">
+      <c r="E18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1736,19 +1995,19 @@
       <c r="D19" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>5</v>
+      <c r="E19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
+      <c r="E20" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>5</v>
@@ -1758,19 +2017,19 @@
       <c r="D21" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>5</v>
+      <c r="E21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>18</v>
+      <c r="E22" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>5</v>
@@ -1780,8 +2039,8 @@
       <c r="D23" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>19</v>
+      <c r="E23" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>5</v>
@@ -1791,8 +2050,8 @@
       <c r="D24" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>20</v>
+      <c r="E24" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>5</v>
@@ -1802,8 +2061,8 @@
       <c r="D25" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>21</v>
+      <c r="E25" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>5</v>
@@ -1813,8 +2072,8 @@
       <c r="D26" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>22</v>
+      <c r="E26" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>5</v>
@@ -1824,8 +2083,8 @@
       <c r="D27" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>23</v>
+      <c r="E27" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>5</v>
@@ -1835,8 +2094,8 @@
       <c r="D28" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>24</v>
+      <c r="E28" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>5</v>
@@ -1846,8 +2105,8 @@
       <c r="D29" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>25</v>
+      <c r="E29" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>5</v>
@@ -1857,8 +2116,8 @@
       <c r="D30" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>26</v>
+      <c r="E30" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>5</v>
@@ -1868,10 +2127,10 @@
       <c r="D31" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="0" t="n">
+      <c r="E31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1879,8 +2138,8 @@
       <c r="D32" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>28</v>
+      <c r="E32" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>5</v>
@@ -1890,8 +2149,8 @@
       <c r="D33" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>29</v>
+      <c r="E33" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>5</v>
@@ -1901,10 +2160,10 @@
       <c r="D34" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="0" t="n">
+      <c r="E34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1912,8 +2171,8 @@
       <c r="D35" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>31</v>
+      <c r="E35" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>5</v>
@@ -1923,8 +2182,8 @@
       <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>32</v>
+      <c r="E36" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>5</v>
@@ -1934,8 +2193,8 @@
       <c r="D37" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>33</v>
+      <c r="E37" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>5</v>
@@ -1945,8 +2204,8 @@
       <c r="D38" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>34</v>
+      <c r="E38" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>5</v>
@@ -1970,8 +2229,8 @@
   </sheetPr>
   <dimension ref="C5:F38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1982,67 +2241,73 @@
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="1" t="s">
-        <v>37</v>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>90</v>
@@ -2052,208 +2317,226 @@
       <c r="C13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>9</v>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>10</v>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
+      <c r="D15" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>12</v>
+      <c r="D16" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>13</v>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>14</v>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>15</v>
+      <c r="D19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>16</v>
+      <c r="D20" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>17</v>
+      <c r="D21" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>18</v>
+      <c r="D22" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>19</v>
+      <c r="D23" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>20</v>
+      <c r="D24" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>21</v>
+      <c r="D25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>22</v>
+      <c r="D26" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>23</v>
+      <c r="D27" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>24</v>
+      <c r="D28" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>25</v>
+      <c r="D29" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>26</v>
+      <c r="D30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>27</v>
+      <c r="D31" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>28</v>
+      <c r="D32" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>29</v>
+      <c r="D33" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>30</v>
+      <c r="D34" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>31</v>
+      <c r="D35" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>32</v>
+      <c r="D36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>33</v>
+      <c r="D37" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>34</v>
+      <c r="D38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2558,7 @@
   <dimension ref="C4:F37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2286,275 +2569,275 @@
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="1" t="s">
-        <v>38</v>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>2</v>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>3</v>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>4</v>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
+      <c r="D15" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>13</v>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>14</v>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>15</v>
+      <c r="D18" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>16</v>
+      <c r="D19" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>17</v>
+      <c r="D20" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>18</v>
+      <c r="D21" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>19</v>
+      <c r="D22" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>20</v>
+      <c r="D23" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>21</v>
+      <c r="D24" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>22</v>
+      <c r="D25" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>23</v>
+      <c r="D26" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>24</v>
+      <c r="D27" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>25</v>
+      <c r="D28" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>26</v>
+      <c r="D29" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>27</v>
+      <c r="D30" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>28</v>
+      <c r="D31" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>29</v>
+      <c r="D32" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>30</v>
+      <c r="D33" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>31</v>
+      <c r="D34" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>32</v>
+      <c r="D35" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>33</v>
+      <c r="D36" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>34</v>
+      <c r="D37" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2587,275 +2870,275 @@
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>3</v>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>4</v>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
+      <c r="D15" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>13</v>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>14</v>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>15</v>
+      <c r="D18" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>16</v>
+      <c r="D19" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>17</v>
+      <c r="D20" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>18</v>
+      <c r="D21" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>19</v>
+      <c r="D22" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>20</v>
+      <c r="D23" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>21</v>
+      <c r="D24" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>22</v>
+      <c r="D25" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>23</v>
+      <c r="D26" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>24</v>
+      <c r="D27" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>25</v>
+      <c r="D28" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>26</v>
+      <c r="D29" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>27</v>
+      <c r="D30" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>28</v>
+      <c r="D31" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>29</v>
+      <c r="D32" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>30</v>
+      <c r="D33" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>31</v>
+      <c r="D34" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>32</v>
+      <c r="D35" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>33</v>
+      <c r="D36" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>34</v>
+      <c r="D37" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2889,12 +3172,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>20</v>
@@ -2906,7 +3189,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>5</v>
@@ -2918,7 +3201,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>15</v>
@@ -2930,7 +3213,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>10</v>
@@ -2941,7 +3224,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>10</v>
@@ -2949,7 +3232,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>10</v>
@@ -2957,7 +3240,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>30</v>

--- a/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="449" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="449" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="practicas_laboratorio" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="pruebas_parciales" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="informes escritos" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="investigacion_bibliografica" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="trabajo_autonomo" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="proyecto" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="examen" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="total" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="56">
   <si>
     <t>Prácticas de laboratorio</t>
   </si>
@@ -148,37 +148,50 @@
     <t>Informes Escritos</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Investigacion</t>
   </si>
   <si>
-    <t>Trabajo_Autonomo</t>
+    <t>Preguntas</t>
+  </si>
+  <si>
+    <t>Respuestas</t>
+  </si>
+  <si>
+    <t>Analisis Respuesta</t>
+  </si>
+  <si>
+    <t>Recomendación 
+Respuesta</t>
+  </si>
+  <si>
+    <t>Indice</t>
+  </si>
+  <si>
+    <t>Pie pagina</t>
+  </si>
+  <si>
+    <t>Punto restauracion</t>
+  </si>
+  <si>
+    <t>Antivirus</t>
+  </si>
+  <si>
+    <t>Scandisk</t>
+  </si>
+  <si>
+    <t>Recomendaciones</t>
+  </si>
+  <si>
+    <t>Conclusiones</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>Examen</t>
   </si>
   <si>
-    <t>Puntuacion</t>
-  </si>
-  <si>
-    <t>Lecciones</t>
-  </si>
-  <si>
-    <t>Informes</t>
-  </si>
-  <si>
-    <t>Investigacion Bibliografica</t>
-  </si>
-  <si>
-    <t>Practicas Laboratorio</t>
-  </si>
-  <si>
-    <t>Practicas Campo</t>
-  </si>
-  <si>
-    <t>Trabajo Autonomo</t>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -290,7 +303,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,6 +340,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -339,7 +356,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -441,18 +458,18 @@
   </sheetPr>
   <dimension ref="B4:G38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4412955465587"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.2753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.75708502024292"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.97570850202429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.61133603238866"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4291497975709"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.71255060728745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
@@ -463,7 +480,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="41.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -474,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -491,7 +508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
@@ -512,7 +529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="n">
         <v>2</v>
       </c>
@@ -533,7 +550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
         <v>3</v>
       </c>
@@ -554,7 +571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
         <v>4</v>
       </c>
@@ -575,7 +592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
         <v>5</v>
       </c>
@@ -596,7 +613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
         <v>6</v>
       </c>
@@ -617,7 +634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
         <v>7</v>
       </c>
@@ -638,7 +655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
         <v>8</v>
       </c>
@@ -659,7 +676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
         <v>9</v>
       </c>
@@ -680,7 +697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
         <v>10</v>
       </c>
@@ -701,7 +718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
         <v>11</v>
       </c>
@@ -722,7 +739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
         <v>12</v>
       </c>
@@ -743,7 +760,7 @@
         <v>6.66666666666667</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
         <v>13</v>
       </c>
@@ -764,7 +781,7 @@
         <v>8.33333333333333</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
         <v>14</v>
       </c>
@@ -785,7 +802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
         <v>15</v>
       </c>
@@ -806,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
         <v>16</v>
       </c>
@@ -827,7 +844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
         <v>17</v>
       </c>
@@ -848,7 +865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
         <v>18</v>
       </c>
@@ -869,7 +886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="n">
         <v>19</v>
       </c>
@@ -890,7 +907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
         <v>20</v>
       </c>
@@ -911,7 +928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="n">
         <v>21</v>
       </c>
@@ -932,7 +949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
         <v>22</v>
       </c>
@@ -953,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
         <v>23</v>
       </c>
@@ -974,7 +991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
         <v>24</v>
       </c>
@@ -995,7 +1012,7 @@
         <v>8.33333333333333</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
         <v>25</v>
       </c>
@@ -1016,7 +1033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="n">
         <v>26</v>
       </c>
@@ -1037,7 +1054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="n">
         <v>27</v>
       </c>
@@ -1058,7 +1075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="n">
         <v>28</v>
       </c>
@@ -1079,7 +1096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="n">
         <v>29</v>
       </c>
@@ -1100,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="n">
         <v>30</v>
       </c>
@@ -1121,7 +1138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="n">
         <v>31</v>
       </c>
@@ -1142,7 +1159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="n">
         <v>32</v>
       </c>
@@ -1832,23 +1849,23 @@
   </sheetPr>
   <dimension ref="D5:G38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1859,7 +1876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
@@ -1870,7 +1887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="n">
         <v>2</v>
       </c>
@@ -1881,7 +1898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="n">
         <v>3</v>
       </c>
@@ -1892,7 +1909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="n">
         <v>4</v>
       </c>
@@ -1903,7 +1920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="n">
         <v>5</v>
       </c>
@@ -1914,7 +1931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="n">
         <v>6</v>
       </c>
@@ -1925,7 +1942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="n">
         <v>7</v>
       </c>
@@ -1936,7 +1953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="n">
         <v>8</v>
       </c>
@@ -1947,7 +1964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="n">
         <v>9</v>
       </c>
@@ -1958,7 +1975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="n">
         <v>10</v>
       </c>
@@ -1969,7 +1986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0" t="n">
         <v>11</v>
       </c>
@@ -1980,7 +1997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="n">
         <v>12</v>
       </c>
@@ -1991,18 +2008,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="n">
         <v>14</v>
       </c>
@@ -2013,18 +2030,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="n">
         <v>16</v>
       </c>
@@ -2035,7 +2052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="0" t="n">
         <v>17</v>
       </c>
@@ -2046,7 +2063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="n">
         <v>18</v>
       </c>
@@ -2057,7 +2074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="n">
         <v>19</v>
       </c>
@@ -2068,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="n">
         <v>20</v>
       </c>
@@ -2079,7 +2096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="n">
         <v>21</v>
       </c>
@@ -2090,7 +2107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="n">
         <v>22</v>
       </c>
@@ -2101,7 +2118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0" t="n">
         <v>23</v>
       </c>
@@ -2112,7 +2129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0" t="n">
         <v>24</v>
       </c>
@@ -2123,7 +2140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="n">
         <v>25</v>
       </c>
@@ -2134,7 +2151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="0" t="n">
         <v>26</v>
       </c>
@@ -2145,7 +2162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0" t="n">
         <v>27</v>
       </c>
@@ -2156,7 +2173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="0" t="n">
         <v>28</v>
       </c>
@@ -2167,7 +2184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="0" t="n">
         <v>29</v>
       </c>
@@ -2178,7 +2195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="0" t="n">
         <v>30</v>
       </c>
@@ -2189,7 +2206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="0" t="n">
         <v>31</v>
       </c>
@@ -2200,7 +2217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="0" t="n">
         <v>32</v>
       </c>
@@ -2233,19 +2250,19 @@
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5708502024292"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2256,7 +2273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
@@ -2264,7 +2281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="n">
         <v>2</v>
       </c>
@@ -2275,7 +2292,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="n">
         <v>3</v>
       </c>
@@ -2283,7 +2300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="n">
         <v>4</v>
       </c>
@@ -2291,7 +2308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="n">
         <v>5</v>
       </c>
@@ -2302,7 +2319,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="n">
         <v>6</v>
       </c>
@@ -2313,7 +2330,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="n">
         <v>7</v>
       </c>
@@ -2321,7 +2338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="n">
         <v>8</v>
       </c>
@@ -2332,7 +2349,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="n">
         <v>9</v>
       </c>
@@ -2340,7 +2357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="n">
         <v>10</v>
       </c>
@@ -2348,7 +2365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="n">
         <v>11</v>
       </c>
@@ -2356,7 +2373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="n">
         <v>12</v>
       </c>
@@ -2364,7 +2381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="n">
         <v>13</v>
       </c>
@@ -2375,7 +2392,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="n">
         <v>14</v>
       </c>
@@ -2383,7 +2400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="n">
         <v>15</v>
       </c>
@@ -2391,7 +2408,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="n">
         <v>16</v>
       </c>
@@ -2399,7 +2416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="n">
         <v>17</v>
       </c>
@@ -2407,7 +2424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="n">
         <v>18</v>
       </c>
@@ -2415,7 +2432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="n">
         <v>19</v>
       </c>
@@ -2426,7 +2443,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="n">
         <v>20</v>
       </c>
@@ -2434,7 +2451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="n">
         <v>21</v>
       </c>
@@ -2442,7 +2459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="n">
         <v>22</v>
       </c>
@@ -2450,7 +2467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="n">
         <v>23</v>
       </c>
@@ -2458,7 +2475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="n">
         <v>24</v>
       </c>
@@ -2469,7 +2486,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="n">
         <v>25</v>
       </c>
@@ -2477,7 +2494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="n">
         <v>26</v>
       </c>
@@ -2485,7 +2502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="n">
         <v>27</v>
       </c>
@@ -2493,7 +2510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="n">
         <v>28</v>
       </c>
@@ -2501,7 +2518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="n">
         <v>29</v>
       </c>
@@ -2509,7 +2526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="n">
         <v>30</v>
       </c>
@@ -2520,7 +2537,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="n">
         <v>31</v>
       </c>
@@ -2528,7 +2545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="n">
         <v>32</v>
       </c>
@@ -2555,288 +2572,1088 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C4:F37"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.7165991902834"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="2" t="s">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <f aca="false">SUM(D5:N5)</f>
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" s="8" t="n">
+        <f aca="false">SUM(D6:N6)</f>
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <f aca="false">SUM(D7:N7)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" s="8" t="n">
+        <f aca="false">SUM(D8:N8)</f>
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <f aca="false">SUM(D9:N9)</f>
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8"/>
+      <c r="B10" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" s="8" t="n">
+        <f aca="false">SUM(D10:N10)</f>
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8"/>
+      <c r="B11" s="0" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <f aca="false">SUM(D11:N11)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8"/>
+      <c r="B12" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <f aca="false">SUM(D12:N12)</f>
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8"/>
+      <c r="B13" s="0" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8" t="n">
+        <f aca="false">SUM(D13:N13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8"/>
+      <c r="B14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" s="8" t="n">
+        <f aca="false">SUM(D14:N14)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8"/>
+      <c r="B15" s="0" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8" t="n">
+        <f aca="false">SUM(D15:N15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8"/>
+      <c r="B16" s="0" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" s="8" t="n">
+        <f aca="false">SUM(D16:N16)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8"/>
+      <c r="B17" s="0" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8" t="n">
+        <f aca="false">SUM(D17:N17)</f>
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8"/>
+      <c r="B18" s="0" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" s="8" t="n">
+        <f aca="false">SUM(D18:N18)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8"/>
+      <c r="B19" s="0" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" s="8" t="n">
+        <f aca="false">SUM(D19:N19)</f>
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8"/>
+      <c r="B20" s="0" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <f aca="false">SUM(D20:N20)</f>
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8"/>
+      <c r="B21" s="0" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" s="8" t="n">
+        <f aca="false">SUM(D21:N21)</f>
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8"/>
+      <c r="B22" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8"/>
+      <c r="B23" s="0" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8"/>
+      <c r="B24" s="0" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8"/>
+      <c r="B25" s="0" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C25" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8"/>
+      <c r="B26" s="0" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O26" s="8" t="n">
+        <f aca="false">SUM(D26:N26)</f>
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8"/>
+      <c r="B27" s="0" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C27" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8"/>
+      <c r="B28" s="0" t="n">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C28" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8"/>
+      <c r="B29" s="0" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" s="8" t="n">
+        <f aca="false">SUM(D29:N29)</f>
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8"/>
+      <c r="B30" s="0" t="n">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C30" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8"/>
+      <c r="B31" s="0" t="n">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C31" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8"/>
+      <c r="B32" s="0" t="n">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C32" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8"/>
+      <c r="B33" s="0" t="n">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C33" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8"/>
+      <c r="B34" s="0" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C34" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8"/>
+      <c r="B35" s="0" t="n">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C35" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8"/>
+      <c r="B36" s="0" t="n">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2858,28 +3675,28 @@
   </sheetPr>
   <dimension ref="C4:H37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.7125506072874"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2892,6 +3709,9 @@
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E6" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="n">
@@ -2899,6 +3719,9 @@
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,6 +3731,9 @@
       <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="E8" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="n">
@@ -2916,6 +3742,9 @@
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="E9" s="0" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="n">
@@ -2923,6 +3752,9 @@
       </c>
       <c r="D10" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,6 +3764,9 @@
       <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="E11" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="n">
@@ -2940,6 +3775,9 @@
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="E12" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="n">
@@ -2948,6 +3786,9 @@
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="E13" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="n">
@@ -2956,6 +3797,9 @@
       <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="E14" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="n">
@@ -2963,6 +3807,9 @@
       </c>
       <c r="D15" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2972,6 +3819,9 @@
       <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="E16" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="n">
@@ -2980,6 +3830,9 @@
       <c r="D17" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="E17" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="n">
@@ -2988,6 +3841,9 @@
       <c r="D18" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="E18" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="n">
@@ -2996,6 +3852,9 @@
       <c r="D19" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="E19" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="n">
@@ -3004,6 +3863,9 @@
       <c r="D20" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="E20" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="n">
@@ -3012,6 +3874,9 @@
       <c r="D21" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="E21" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="n">
@@ -3020,6 +3885,9 @@
       <c r="D22" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="E22" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="n">
@@ -3028,6 +3896,9 @@
       <c r="D23" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="E23" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="n">
@@ -3036,6 +3907,9 @@
       <c r="D24" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="E24" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="n">
@@ -3044,6 +3918,9 @@
       <c r="D25" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="E25" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="n">
@@ -3052,6 +3929,9 @@
       <c r="D26" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="E26" s="0" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="n">
@@ -3060,6 +3940,9 @@
       <c r="D27" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="E27" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="n">
@@ -3068,6 +3951,9 @@
       <c r="D28" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="E28" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="n">
@@ -3076,6 +3962,9 @@
       <c r="D29" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="E29" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="n">
@@ -3084,6 +3973,9 @@
       <c r="D30" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="E30" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="n">
@@ -3092,6 +3984,9 @@
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="E31" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="n">
@@ -3100,6 +3995,9 @@
       <c r="D32" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="E32" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="n">
@@ -3108,6 +4006,9 @@
       <c r="D33" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="E33" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="n">
@@ -3116,6 +4017,9 @@
       <c r="D34" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="E34" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="n">
@@ -3124,6 +4028,9 @@
       <c r="D35" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="E35" s="0" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="n">
@@ -3132,6 +4039,9 @@
       <c r="D36" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="E36" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="n">
@@ -3139,6 +4049,9 @@
       </c>
       <c r="D37" s="5" t="s">
         <v>38</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3157,114 +4070,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C1:E10"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9676113360324"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">pruebas_parciales!G12*D2/100</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">'informes escritos'!F12</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <f aca="false">investigacion_bibliografica!E12*D4/100</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="n">
-        <f aca="false">SUM(D2:D8)</f>
-        <v>100</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <f aca="false">SUM(E2:E8)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_basica/a/evaluacion.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="57">
   <si>
     <t>Prácticas de laboratorio</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Investigacion</t>
+  </si>
+  <si>
+    <t>total_ponderado</t>
   </si>
   <si>
     <t>Preguntas</t>
@@ -356,7 +359,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2246,15 +2249,17 @@
   </sheetPr>
   <dimension ref="C5:F38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5708502024292"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2270,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,6 +2368,9 @@
       </c>
       <c r="D16" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,10 +2582,10 @@
   </sheetPr>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="O24" activeCellId="0" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2597,40 +2605,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,6 +3464,43 @@
       <c r="C22" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <f aca="false">SUM(D22:N22)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
@@ -3464,6 +3509,43 @@
       </c>
       <c r="C23" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <f aca="false">SUM(D23:N23)</f>
+        <v>13.2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3675,8 +3757,8 @@
   </sheetPr>
   <dimension ref="C4:H37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3696,7 +3778,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -4083,7 +4165,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
